--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H2">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I2">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J2">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>88.67097376369816</v>
+        <v>117.0502719324142</v>
       </c>
       <c r="R2">
-        <v>88.67097376369816</v>
+        <v>1053.452447391728</v>
       </c>
       <c r="S2">
-        <v>0.09718869120503217</v>
+        <v>0.1039291471654195</v>
       </c>
       <c r="T2">
-        <v>0.09718869120503217</v>
+        <v>0.1239429198924076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H3">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I3">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J3">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>37.83940999347528</v>
+        <v>51.45614012918333</v>
       </c>
       <c r="R3">
-        <v>37.83940999347528</v>
+        <v>463.10526116265</v>
       </c>
       <c r="S3">
-        <v>0.04147425676227399</v>
+        <v>0.04568799945324521</v>
       </c>
       <c r="T3">
-        <v>0.04147425676227399</v>
+        <v>0.05448619767142755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H4">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I4">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J4">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>51.68892662388923</v>
+        <v>66.77753225382666</v>
       </c>
       <c r="R4">
-        <v>51.68892662388923</v>
+        <v>600.9977902844399</v>
       </c>
       <c r="S4">
-        <v>0.05665415541455784</v>
+        <v>0.05929189110264339</v>
       </c>
       <c r="T4">
-        <v>0.05665415541455784</v>
+        <v>0.07070980864980543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H5">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I5">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J5">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>48.2734124280236</v>
+        <v>63.07001559227555</v>
       </c>
       <c r="R5">
-        <v>48.2734124280236</v>
+        <v>567.63014033048</v>
       </c>
       <c r="S5">
-        <v>0.05291054755283514</v>
+        <v>0.05599998038449421</v>
       </c>
       <c r="T5">
-        <v>0.05291054755283514</v>
+        <v>0.06678397034976521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H6">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I6">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J6">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>25.65458385673241</v>
+        <v>32.71343788498066</v>
       </c>
       <c r="R6">
-        <v>25.65458385673241</v>
+        <v>196.280627309884</v>
       </c>
       <c r="S6">
-        <v>0.02811895846650033</v>
+        <v>0.02904632038956803</v>
       </c>
       <c r="T6">
-        <v>0.02811895846650033</v>
+        <v>0.02309320570409592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H7">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J7">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>89.38504963971542</v>
+        <v>122.3334609381244</v>
       </c>
       <c r="R7">
-        <v>89.38504963971542</v>
+        <v>1101.00114844312</v>
       </c>
       <c r="S7">
-        <v>0.09797136107844701</v>
+        <v>0.1086201001945097</v>
       </c>
       <c r="T7">
-        <v>0.09797136107844701</v>
+        <v>0.1295372159235119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H8">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J8">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>38.14413439980778</v>
+        <v>53.77866795691667</v>
       </c>
       <c r="R8">
-        <v>38.14413439980778</v>
+        <v>484.0080116122501</v>
       </c>
       <c r="S8">
-        <v>0.04180825293906809</v>
+        <v>0.04775017609255839</v>
       </c>
       <c r="T8">
-        <v>0.04180825293906809</v>
+        <v>0.05694549038171578</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H9">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J9">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>52.10518251905632</v>
+        <v>69.79160747473333</v>
       </c>
       <c r="R9">
-        <v>52.10518251905632</v>
+        <v>628.1244672726</v>
       </c>
       <c r="S9">
-        <v>0.05711039677450364</v>
+        <v>0.06196809391729492</v>
       </c>
       <c r="T9">
-        <v>0.05711039677450364</v>
+        <v>0.07390137136458692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H10">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J10">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>48.66216285902424</v>
+        <v>65.91674808991111</v>
       </c>
       <c r="R10">
-        <v>48.66216285902424</v>
+        <v>593.2507328092001</v>
       </c>
       <c r="S10">
-        <v>0.05333664127878238</v>
+        <v>0.05852759929389905</v>
       </c>
       <c r="T10">
-        <v>0.05333664127878238</v>
+        <v>0.06979833616100645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H11">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J11">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>25.86118268680925</v>
+        <v>34.18999383414334</v>
       </c>
       <c r="R11">
-        <v>25.86118268680925</v>
+        <v>205.13996300486</v>
       </c>
       <c r="S11">
-        <v>0.0283454031422199</v>
+        <v>0.03035735707496002</v>
       </c>
       <c r="T11">
-        <v>0.0283454031422199</v>
+        <v>0.02413554220163889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H12">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I12">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J12">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>142.812663771126</v>
+        <v>0.02885060104622222</v>
       </c>
       <c r="R12">
-        <v>142.812663771126</v>
+        <v>0.259655409416</v>
       </c>
       <c r="S12">
-        <v>0.1565312220029146</v>
+        <v>2.561650060646546E-05</v>
       </c>
       <c r="T12">
-        <v>0.1565312220029146</v>
+        <v>3.054950386090895E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H13">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I13">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J13">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>60.94380953903931</v>
+        <v>0.01268293140833333</v>
       </c>
       <c r="R13">
-        <v>60.94380953903931</v>
+        <v>0.114146382675</v>
       </c>
       <c r="S13">
-        <v>0.06679806068141858</v>
+        <v>1.126119762956803E-05</v>
       </c>
       <c r="T13">
-        <v>0.06679806068141858</v>
+        <v>1.342978128621197E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H14">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I14">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J14">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>83.24971504542127</v>
+        <v>0.01645935468666666</v>
       </c>
       <c r="R14">
-        <v>83.24971504542127</v>
+        <v>0.14813419218</v>
       </c>
       <c r="S14">
-        <v>0.09124666737074665</v>
+        <v>1.461429065680544E-05</v>
       </c>
       <c r="T14">
-        <v>0.09124666737074665</v>
+        <v>1.742858385316844E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H15">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I15">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J15">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>77.74871894990572</v>
+        <v>0.01554552439555556</v>
       </c>
       <c r="R15">
-        <v>77.74871894990572</v>
+        <v>0.13990971956</v>
       </c>
       <c r="S15">
-        <v>0.08521724660142126</v>
+        <v>1.380289909622929E-05</v>
       </c>
       <c r="T15">
-        <v>0.08521724660142126</v>
+        <v>1.646094155130486E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.000793</v>
+      </c>
+      <c r="I16">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.503993</v>
+      </c>
+      <c r="N16">
+        <v>61.007986</v>
+      </c>
+      <c r="O16">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P16">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q16">
+        <v>0.008063222149666666</v>
+      </c>
+      <c r="R16">
+        <v>0.048379332898</v>
+      </c>
+      <c r="S16">
+        <v>7.159349462289568E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.692023210607444E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.4547475</v>
+      </c>
+      <c r="H17">
+        <v>2.909495</v>
+      </c>
+      <c r="I17">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J17">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>109.1447706666667</v>
+      </c>
+      <c r="N17">
+        <v>327.434312</v>
+      </c>
+      <c r="O17">
+        <v>0.3535542089399963</v>
+      </c>
+      <c r="P17">
+        <v>0.3655959674582361</v>
+      </c>
+      <c r="Q17">
+        <v>158.7780822654067</v>
+      </c>
+      <c r="R17">
+        <v>952.6684935924399</v>
+      </c>
+      <c r="S17">
+        <v>0.1409793450794607</v>
+      </c>
+      <c r="T17">
+        <v>0.1120852821384556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.4547475</v>
+      </c>
+      <c r="H18">
+        <v>2.909495</v>
+      </c>
+      <c r="I18">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J18">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>47.980825</v>
+      </c>
+      <c r="N18">
+        <v>143.942475</v>
+      </c>
+      <c r="O18">
+        <v>0.155424969272891</v>
+      </c>
+      <c r="P18">
+        <v>0.1607186127944892</v>
+      </c>
+      <c r="Q18">
+        <v>69.7999852166875</v>
+      </c>
+      <c r="R18">
+        <v>418.799911300125</v>
+      </c>
+      <c r="S18">
+        <v>0.06197553252945782</v>
+      </c>
+      <c r="T18">
+        <v>0.04927349496005963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.4547475</v>
+      </c>
+      <c r="H19">
+        <v>2.909495</v>
+      </c>
+      <c r="I19">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J19">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>62.26741999999999</v>
+      </c>
+      <c r="N19">
+        <v>186.80226</v>
+      </c>
+      <c r="O19">
+        <v>0.2017037397794264</v>
+      </c>
+      <c r="P19">
+        <v>0.2085735992386923</v>
+      </c>
+      <c r="Q19">
+        <v>90.58337357644999</v>
+      </c>
+      <c r="R19">
+        <v>543.5002414586999</v>
+      </c>
+      <c r="S19">
+        <v>0.0804291404688313</v>
+      </c>
+      <c r="T19">
+        <v>0.0639449906404468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="H16">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="I16">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="J16">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>30.4001852114798</v>
-      </c>
-      <c r="N16">
-        <v>30.4001852114798</v>
-      </c>
-      <c r="O16">
-        <v>0.1017525003379987</v>
-      </c>
-      <c r="P16">
-        <v>0.1017525003379987</v>
-      </c>
-      <c r="Q16">
-        <v>41.31903939933544</v>
-      </c>
-      <c r="R16">
-        <v>41.31903939933544</v>
-      </c>
-      <c r="S16">
-        <v>0.04528813872927843</v>
-      </c>
-      <c r="T16">
-        <v>0.04528813872927843</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.4547475</v>
+      </c>
+      <c r="H20">
+        <v>2.909495</v>
+      </c>
+      <c r="I20">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J20">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.81030666666667</v>
+      </c>
+      <c r="N20">
+        <v>176.43092</v>
+      </c>
+      <c r="O20">
+        <v>0.1905050633580386</v>
+      </c>
+      <c r="P20">
+        <v>0.1969935053322898</v>
+      </c>
+      <c r="Q20">
+        <v>85.55414659756666</v>
+      </c>
+      <c r="R20">
+        <v>513.3248795854</v>
+      </c>
+      <c r="S20">
+        <v>0.07596368078054912</v>
+      </c>
+      <c r="T20">
+        <v>0.06039473787996687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.4547475</v>
+      </c>
+      <c r="H21">
+        <v>2.909495</v>
+      </c>
+      <c r="I21">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J21">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.503993</v>
+      </c>
+      <c r="N21">
+        <v>61.007986</v>
+      </c>
+      <c r="O21">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P21">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q21">
+        <v>44.3756075567675</v>
+      </c>
+      <c r="R21">
+        <v>177.50243022707</v>
+      </c>
+      <c r="S21">
+        <v>0.03940118183565734</v>
+      </c>
+      <c r="T21">
+        <v>0.02088387524734717</v>
       </c>
     </row>
   </sheetData>
